--- a/2025-10-16/16_ai.full_fixtures.xlsx
+++ b/2025-10-16/16_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,31 +636,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leones FC  - San Antonio FC: 21:00</t>
+          <t>Kampala Capital City Authority FC  - Lugazi FC: 0:0</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.68</v>
+        <v>2.23</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Kampala Capital City Authority FC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -671,15 +671,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tractor FC  - Malavan Bandar Anzali: 15:45</t>
+          <t>Leones FC  - San Antonio FC: 1:1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.92</v>
+        <v>0.68</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tractor FC</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -687,12 +687,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -706,31 +706,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atlético Vinotinto  - Chacaritas FC: 21:00</t>
+          <t>Viimsi JK ✓ - FC Flora Tallinn U21: 2:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atlético Vinotinto</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -741,28 +745,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Independiente Juniors  - Gualaceo SC: 21:00</t>
+          <t>Tractor FC  - Malavan Bandar Anzali: 15:45</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.31</v>
+        <v>0.92</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Independiente Juniors</t>
+          <t>Tractor FC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -776,15 +780,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fakel Voronezh ✓ - Ural Yekaterinburg: 1:0</t>
+          <t>Al-Khaboura Sports Club - Al-Nahda Club ✓: 0:3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.03</v>
+        <v>1.42</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fakel Voronezh</t>
+          <t>Al-Nahda Club</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -792,7 +796,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -801,10 +805,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -815,31 +819,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS Cartaginés  - Guadalupe FC: 1:1</t>
+          <t>Atlético Vinotinto ✓ - Chacaritas FC: 4:0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CS Cartaginés</t>
+          <t>Atlético Vinotinto</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -850,15 +858,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FC Taraz ✓ - AKAS Almaty: 3:1</t>
+          <t>Independiente Juniors ✓ - Gualaceo SC: 2:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.85</v>
+        <v>1.31</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Taraz</t>
+          <t>Independiente Juniors</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -866,7 +874,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -875,7 +883,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -889,23 +897,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Akademia Ontustik Shymkent ✓ - FC Jetisay: 3:1</t>
+          <t>Fakel Voronezh ✓ - Ural Yekaterinburg: 1:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.1</v>
+        <v>1.03</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Akademia Ontustik Shymkent</t>
+          <t>Fakel Voronezh</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -914,10 +922,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -928,15 +936,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Deportivo Marquense - Antigua GFC : 00:00</t>
+          <t>CS Cartaginés  - Guadalupe FC: 1:1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Antigua GFC</t>
+          <t>CS Cartaginés</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,12 +952,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -963,15 +971,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sport Club do Recife  - Ceará Sporting Club: 1:1</t>
+          <t>FC Taraz ✓ - AKAS Almaty: 3:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sport Club do Recife</t>
+          <t>FC Taraz</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -979,15 +987,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -998,31 +1010,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Club Sporting Cristal - Universitario de Deportes : 02:00</t>
+          <t>Akademia Ontustik Shymkent ✓ - FC Jetisay: 3:1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Universitario de Deportes</t>
+          <t>Akademia Ontustik Shymkent</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1033,19 +1049,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ilves Tampere  - Kuopion Palloseura: 1:1</t>
+          <t>Deportivo Marquense - Antigua GFC : 00:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Ilves Tampere</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1054,7 +1070,7 @@
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1068,30 +1084,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Managua FC ✓ - Real Madriz FC: 2:0</t>
+          <t>Sport Club do Recife  - Ceará Sporting Club: 1:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.35</v>
+        <v>1.81</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Managua FC</t>
+          <t>Sport Club do Recife</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
         <v>2</v>
       </c>
@@ -1107,31 +1119,31 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Al-Khaboura Sports Club - Oman Club : 16:40</t>
+          <t>Club Sporting Cristal - Universitario de Deportes : 02:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Oman Club</t>
+          <t>Universitario de Deportes</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1142,31 +1154,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Olimpik-Mobiuz Tashkent  - Aral Nukus: 15:00</t>
+          <t>Ilves Tampere  - Kuopion Palloseura: 1:1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.31</v>
+        <v>2.06</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Olimpik-Mobiuz Tashkent</t>
+          <t>Ilves Tampere</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1177,23 +1189,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AD San Carlos - Deportivo Saprissa ✓: 0:2</t>
+          <t>Managua FC ✓ - Real Madriz FC: 2:0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.06</v>
+        <v>2.35</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Deportivo Saprissa</t>
+          <t>Managua FC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1216,28 +1228,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Club General Caballero (JLM)  - Atlético Tembetary: 22:30</t>
+          <t>Al-Khaboura Sports Club - Oman Club : 16:40</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.07</v>
+        <v>0.84</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Club General Caballero (JLM)</t>
+          <t>Oman Club</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1251,15 +1263,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CD Marathón  - Real CD España: 0:0</t>
+          <t>Olimpik-Mobiuz Tashkent  - Aral Nukus: 15:00</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CD Marathón</t>
+          <t>Olimpik-Mobiuz Tashkent</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1267,15 +1279,15 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1286,31 +1298,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Olympique Akbou  - MC El Bayadh: 23:00</t>
+          <t>AD San Carlos - Deportivo Saprissa ✓: 0:2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.65</v>
+        <v>1.06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Olympique Akbou</t>
+          <t>Deportivo Saprissa</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1321,35 +1337,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mirassol Futebol Clube (SP) ✓ - Sport Club Internacional: 3:1</t>
+          <t>Club General Caballero (JLM)  - Atlético Tembetary: 1:1</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.2</v>
+        <v>1.07</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mirassol Futebol Clube (SP)</t>
+          <t>Club General Caballero (JLM)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1360,15 +1372,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Clube Atlético Mineiro  - Cruzeiro Esporte Clube: 1:1</t>
+          <t>Esbjerg fB  - Hobro IK: 1:1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Clube Atlético Mineiro</t>
+          <t>Esbjerg fB</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,7 +1388,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1395,31 +1407,31 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ES Mostaganem  - ASO Chlef: 23:00</t>
+          <t>CD Marathón  - Real CD España: 0:0</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.78</v>
+        <v>1.3</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ES Mostaganem</t>
+          <t>CD Marathón</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1430,35 +1442,31 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fortaleza Esporte Clube - Clube de Regatas Vasco da Gama ✓: 0:2</t>
+          <t>Olympique Akbou  - MC El Bayadh: 23:00</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.35</v>
+        <v>0.65</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Clube de Regatas Vasco da Gama</t>
+          <t>Olympique Akbou</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1469,15 +1477,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Grêmio Foot-Ball Porto Alegrense  - São Paulo Futebol Clube: 23:00</t>
+          <t>Mirassol Futebol Clube (SP) ✓ - Sport Club Internacional: 3:1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Grêmio Foot-Ball Porto Alegrense</t>
+          <t>Mirassol Futebol Clube (SP)</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1485,12 +1493,16 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1504,15 +1516,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Santos FC - Sport Club Corinthians Paulista X: 3:1</t>
+          <t>Clube Atlético Mineiro  - Cruzeiro Esporte Clube: 1:1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sport Club Corinthians Paulista</t>
+          <t>Clube Atlético Mineiro</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,19 +1532,15 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1543,32 +1551,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FC Khan Tengri - FC Ekibastuz X: 4:0</t>
+          <t>ES Mostaganem  - ASO Chlef: 23:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2.39</v>
+        <v>0.78</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Ekibastuz</t>
+          <t>ES Mostaganem</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -1582,23 +1586,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Orange County SC ✓ - San Antonio FC: 1:0</t>
+          <t>Fortaleza Esporte Clube - Clube de Regatas Vasco da Gama ✓: 0:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.63</v>
+        <v>2.35</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Clube de Regatas Vasco da Gama</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1607,7 +1611,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="b">
         <v>1</v>
@@ -1621,32 +1625,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Deportivo Pereira - Millonarios FC X: 3:2</t>
+          <t>FK Csikszereda Miercurea Ciuc - CFR Cluj : 2:2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.26</v>
+        <v>2.58</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1660,31 +1660,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ibri Club - Sohar SC : 14:10</t>
+          <t>Grêmio Foot-Ball Porto Alegrense ✓ - São Paulo Futebol Clube: 2:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.32</v>
+        <v>2.07</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sohar SC</t>
+          <t>Grêmio Foot-Ball Porto Alegrense</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H34" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1695,32 +1699,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Asiagoal Bishkek - Muras United Dzhalal-Abad ✓: 2:6</t>
+          <t>Santos FC - Sport Club Corinthians Paulista X: 3:1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.39</v>
+        <v>1.87</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Muras United Dzhalal-Abad</t>
+          <t>Sport Club Corinthians Paulista</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -1734,34 +1738,225 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FC Olympic ✓ - Jayhun Nukus: 3:1</t>
+          <t>FC Khan Tengri - FC Ekibastuz X: 4:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.12</v>
+        <v>2.39</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Olympic</t>
+          <t>FC Ekibastuz</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>X</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Thu Oct 16</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Orange County SC ✓ - San Antonio FC: 1:0</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Orange County SC</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Thu Oct 16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira - Millonarios FC X: 3:2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Millonarios FC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Thu Oct 16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ibri Club - Sohar SC : 14:10</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sohar SC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>24</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Thu Oct 16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Asiagoal Bishkek - Muras United Dzhalal-Abad ✓: 2:6</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Muras United Dzhalal-Abad</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Thu Oct 16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FC Olympic ✓ - Jayhun Nukus: 3:1</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FC Olympic</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="b">
         <v>0</v>
       </c>
     </row>
